--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp10-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp10-Bmpr1a.xlsx
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H2">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I2">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J2">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N2">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O2">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P2">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q2">
-        <v>1.384215068586667</v>
+        <v>1.090498496918333</v>
       </c>
       <c r="R2">
-        <v>12.45793561728</v>
+        <v>9.814486472264999</v>
       </c>
       <c r="S2">
-        <v>0.01091597779937761</v>
+        <v>0.01083339553429355</v>
       </c>
       <c r="T2">
-        <v>0.01091597779937761</v>
+        <v>0.01083339553429355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H3">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I3">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J3">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>29.178763</v>
       </c>
       <c r="N3">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O3">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P3">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q3">
-        <v>17.33101807148</v>
+        <v>5.214682629545</v>
       </c>
       <c r="R3">
-        <v>155.97916264332</v>
+        <v>46.932143665905</v>
       </c>
       <c r="S3">
-        <v>0.1366731318002863</v>
+        <v>0.05180449094731915</v>
       </c>
       <c r="T3">
-        <v>0.1366731318002863</v>
+        <v>0.05180449094731915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H4">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I4">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J4">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N4">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O4">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P4">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q4">
-        <v>0.2338951124266666</v>
+        <v>0.02620748246</v>
       </c>
       <c r="R4">
-        <v>2.10505601184</v>
+        <v>0.23586734214</v>
       </c>
       <c r="S4">
-        <v>0.001844506617919804</v>
+        <v>0.0002603543464292393</v>
       </c>
       <c r="T4">
-        <v>0.001844506617919805</v>
+        <v>0.0002603543464292393</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H5">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I5">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J5">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N5">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O5">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P5">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q5">
-        <v>12.87447422165333</v>
+        <v>2.684808578178333</v>
       </c>
       <c r="R5">
-        <v>115.87026799488</v>
+        <v>24.163277203605</v>
       </c>
       <c r="S5">
-        <v>0.1015286410122098</v>
+        <v>0.02667183250913583</v>
       </c>
       <c r="T5">
-        <v>0.1015286410122098</v>
+        <v>0.02667183250913583</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H6">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I6">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J6">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N6">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q6">
-        <v>5.790549697733333</v>
+        <v>0.9452058826433333</v>
       </c>
       <c r="R6">
-        <v>52.1149472796</v>
+        <v>8.506852943789999</v>
       </c>
       <c r="S6">
-        <v>0.04566451657775186</v>
+        <v>0.009390007612989061</v>
       </c>
       <c r="T6">
-        <v>0.04566451657775187</v>
+        <v>0.009390007612989061</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H7">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I7">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J7">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N7">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O7">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P7">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q7">
-        <v>0.2512333987866666</v>
+        <v>0.00898185847</v>
       </c>
       <c r="R7">
-        <v>2.26110058908</v>
+        <v>0.08083672622999999</v>
       </c>
       <c r="S7">
-        <v>0.001981237067746692</v>
+        <v>8.922894044652836E-05</v>
       </c>
       <c r="T7">
-        <v>0.001981237067746693</v>
+        <v>8.922894044652837E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H8">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I8">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J8">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N8">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O8">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P8">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q8">
-        <v>1.92009851856</v>
+        <v>8.850774989690555</v>
       </c>
       <c r="R8">
-        <v>17.28088666704</v>
+        <v>79.656974907215</v>
       </c>
       <c r="S8">
-        <v>0.01514197705030003</v>
+        <v>0.08792671105857688</v>
       </c>
       <c r="T8">
-        <v>0.01514197705030003</v>
+        <v>0.08792671105857687</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H9">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I9">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J9">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>29.178763</v>
       </c>
       <c r="N9">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O9">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P9">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q9">
-        <v>24.040528729515</v>
+        <v>42.32374710022834</v>
       </c>
       <c r="R9">
-        <v>216.364758565635</v>
+        <v>380.913723902055</v>
       </c>
       <c r="S9">
-        <v>0.1895846128626757</v>
+        <v>0.4204589865331292</v>
       </c>
       <c r="T9">
-        <v>0.1895846128626757</v>
+        <v>0.4204589865331292</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>20</v>
       </c>
       <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.450498333333333</v>
+      </c>
+      <c r="H10">
+        <v>4.351495</v>
+      </c>
+      <c r="I10">
+        <v>0.8039104659046613</v>
+      </c>
+      <c r="J10">
+        <v>0.8039104659046612</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.8239049999999999</v>
-      </c>
-      <c r="H10">
-        <v>2.471715</v>
-      </c>
-      <c r="I10">
-        <v>0.4142107771570602</v>
-      </c>
-      <c r="J10">
-        <v>0.4142107771570602</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N10">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O10">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P10">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q10">
-        <v>0.3244450006799999</v>
+        <v>0.2127068775933333</v>
       </c>
       <c r="R10">
-        <v>2.920005006119999</v>
+        <v>1.91436189834</v>
       </c>
       <c r="S10">
-        <v>0.002558586815673137</v>
+        <v>0.002113104918846772</v>
       </c>
       <c r="T10">
-        <v>0.002558586815673137</v>
+        <v>0.002113104918846772</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H11">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I11">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J11">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N11">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O11">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P11">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q11">
-        <v>17.85868355376</v>
+        <v>21.79061840341722</v>
       </c>
       <c r="R11">
-        <v>160.72815198384</v>
+        <v>196.115565630755</v>
       </c>
       <c r="S11">
-        <v>0.1408343238150123</v>
+        <v>0.2164756657328559</v>
       </c>
       <c r="T11">
-        <v>0.1408343238150123</v>
+        <v>0.2164756657328559</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H12">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I12">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J12">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N12">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O12">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P12">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q12">
-        <v>8.032296532949999</v>
+        <v>7.671541602165555</v>
       </c>
       <c r="R12">
-        <v>72.29066879654998</v>
+        <v>69.04387441949</v>
       </c>
       <c r="S12">
-        <v>0.06334302567680088</v>
+        <v>0.07621179191801442</v>
       </c>
       <c r="T12">
-        <v>0.06334302567680088</v>
+        <v>0.0762117919180144</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H13">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I13">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J13">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N13">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O13">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P13">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q13">
-        <v>0.3484956115349999</v>
+        <v>0.07289914523666666</v>
       </c>
       <c r="R13">
-        <v>3.136460503814999</v>
+        <v>0.65609230713</v>
       </c>
       <c r="S13">
-        <v>0.002748250936598152</v>
+        <v>0.0007242057432380531</v>
       </c>
       <c r="T13">
-        <v>0.002748250936598152</v>
+        <v>0.000724205743238053</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H14">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I14">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J14">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N14">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O14">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P14">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q14">
-        <v>1.331245467445333</v>
+        <v>1.068379161376667</v>
       </c>
       <c r="R14">
-        <v>11.981209207008</v>
+        <v>9.61541245239</v>
       </c>
       <c r="S14">
-        <v>0.01049825731415629</v>
+        <v>0.01061365427691832</v>
       </c>
       <c r="T14">
-        <v>0.01049825731415629</v>
+        <v>0.01061365427691832</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H15">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I15">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J15">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>29.178763</v>
       </c>
       <c r="N15">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O15">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P15">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q15">
-        <v>16.667813967253</v>
+        <v>5.108909613670001</v>
       </c>
       <c r="R15">
-        <v>150.010325705277</v>
+        <v>45.98018652303001</v>
       </c>
       <c r="S15">
-        <v>0.1314430765563494</v>
+        <v>0.05075370461330113</v>
       </c>
       <c r="T15">
-        <v>0.1314430765563495</v>
+        <v>0.05075370461330112</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>20</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.17509</v>
+      </c>
+      <c r="H16">
+        <v>0.52527</v>
+      </c>
+      <c r="I16">
+        <v>0.09704022420472538</v>
+      </c>
+      <c r="J16">
+        <v>0.09704022420472537</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.5712309999999999</v>
-      </c>
-      <c r="H16">
-        <v>1.713693</v>
-      </c>
-      <c r="I16">
-        <v>0.2871812119676476</v>
-      </c>
-      <c r="J16">
-        <v>0.2871812119676476</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N16">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O16">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P16">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q16">
-        <v>0.2249446746693333</v>
+        <v>0.02567589796</v>
       </c>
       <c r="R16">
-        <v>2.024502072024</v>
+        <v>0.23108308164</v>
       </c>
       <c r="S16">
-        <v>0.001773923092230028</v>
+        <v>0.0002550733990783958</v>
       </c>
       <c r="T16">
-        <v>0.001773923092230029</v>
+        <v>0.0002550733990783958</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H17">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I17">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J17">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N17">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O17">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P17">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q17">
-        <v>12.38180817581867</v>
+        <v>2.630350748136666</v>
       </c>
       <c r="R17">
-        <v>111.436273582368</v>
+        <v>23.67315673323</v>
       </c>
       <c r="S17">
-        <v>0.0976434560139498</v>
+        <v>0.02613082927579998</v>
       </c>
       <c r="T17">
-        <v>0.09764345601394982</v>
+        <v>0.02613082927579998</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H18">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I18">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J18">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N18">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O18">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P18">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q18">
-        <v>5.568963388756666</v>
+        <v>0.9260336177266667</v>
       </c>
       <c r="R18">
-        <v>50.12067049880999</v>
+        <v>8.334302559540001</v>
       </c>
       <c r="S18">
-        <v>0.04391707769753144</v>
+        <v>0.009199543591518648</v>
       </c>
       <c r="T18">
-        <v>0.04391707769753144</v>
+        <v>0.009199543591518646</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H19">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I19">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J19">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N19">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O19">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P19">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q19">
-        <v>0.2416194787903333</v>
+        <v>0.00879967322</v>
       </c>
       <c r="R19">
-        <v>2.174575309113</v>
+        <v>0.07919705898</v>
       </c>
       <c r="S19">
-        <v>0.001905421293430552</v>
+        <v>8.741904810890331E-05</v>
       </c>
       <c r="T19">
-        <v>0.001905421293430552</v>
+        <v>8.741904810890331E-05</v>
       </c>
     </row>
   </sheetData>
